--- a/Profile_DocumentManifest.xlsx
+++ b/Profile_DocumentManifest.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">        DocumentManifest.related.ref</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t># DocumentManifest.content.p[x]</t>
+  </si>
+  <si>
+    <t>TXA-16</t>
+  </si>
+  <si>
+    <t>Unique Document File Name?</t>
+  </si>
+  <si>
+    <t>TXA.UniqueDocumentFileName</t>
+  </si>
+  <si>
+    <t>TXA.16</t>
   </si>
 </sst>
 </file>
@@ -251,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -269,6 +281,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,17 +565,17 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -604,96 +617,179 @@
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>0</v>
       </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Profile_DocumentManifest.xlsx
+++ b/Profile_DocumentManifest.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t xml:space="preserve">        DocumentManifest.related.ref</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>TXA.16</t>
+  </si>
+  <si>
+    <t>Reference(Patient | Practitioner | Group | Device)</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner | Organization | Device | Patient | RelatedPerson)</t>
+  </si>
+  <si>
+    <t>Reference(Patient | Practitioner | RelatedPerson | Organization)</t>
+  </si>
+  <si>
+    <t>Reference(Any)</t>
   </si>
 </sst>
 </file>
@@ -272,6 +284,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -281,7 +294,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,16 +591,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
@@ -617,27 +629,27 @@
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -645,151 +657,161 @@
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
